--- a/TestCases_BugReports/TC_Reem.xlsx
+++ b/TestCases_BugReports/TC_Reem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-Dell-\Downloads\TC&amp;BugReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FromJuly2022\Vodafone\ReemKhalaf\TestCases_BugReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -128,45 +128,10 @@
     <t>TC002_EmptyLogin</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: https://eshop.vodafone.com.eg/eshop/homePage/index.jsp#/home/login
-Mobile number: 010234912359
-password: reemkhalaf
-</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>User can not login Error Massage will appear 
-"Invalid mobile number or Password"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error Massage appeared
-"Invalid username or Password"</t>
-  </si>
-  <si>
-    <t>TC004_ErrorMessage</t>
-  </si>
-  <si>
     <t>Login with Invalid Data</t>
-  </si>
-  <si>
-    <t>Verify that the user can not login successfully with Unregistered mobile number and wrong password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Open Chrome browser
-2- Go to Link URL
-3- Enter invalied Mobile number in mobile number field
-4- Enter Invalied Password  in password field
-5- Press 'go to my account'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can not login Error Massage will appear 
-</t>
-  </si>
-  <si>
-    <t>Login Failed, Error Message appeared</t>
   </si>
   <si>
     <t>Login Failed, Cannot Press  ' go to my account' "button not active"</t>
@@ -195,10 +160,15 @@
 </t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>TC003_InvalidLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login Failed, Error Massage appeared
+"Invalid username or Password"</t>
+  </si>
+  <si>
+    <t>User can not login, Error Massage will appear 
+"Invalid mobile number or Password"</t>
   </si>
 </sst>
 </file>
@@ -245,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -579,23 +550,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.90625" style="4" customWidth="1"/>
     <col min="6" max="6" width="48" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.08984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.1796875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.90625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="4"/>
     <col min="10" max="10" width="38.26953125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="27.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" style="4" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -696,7 +667,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>18</v>
@@ -708,88 +679,51 @@
         <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="146" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="146" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="146" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
